--- a/Defekty.xlsx
+++ b/Defekty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10dd0dc31595724b/Dokumenty/Rollmops_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamilbukowski/Documents/GitHub/rollmops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{EDCC1946-88F3-DE46-9F5E-BEF616BD1149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D402A30C-E030-7142-9A6E-1C3243233F18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10125E9B-5835-6D45-A8FB-17E46C2ED5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2400" windowWidth="27840" windowHeight="16740" xr2:uid="{E50B1CDD-4160-504C-A73A-CFF72B2F7FE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25340" windowHeight="19540" activeTab="11" xr2:uid="{E50B1CDD-4160-504C-A73A-CFF72B2F7FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Defekt_01" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="214">
   <si>
     <t>Tytuł</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Autor:</t>
   </si>
   <si>
-    <t>Kogut</t>
-  </si>
-  <si>
     <t>Powiązany PT:</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>Link służący do odzyskiwania hasła, który jest wysyłany na maila ma ustawiony domyślny opis. Warto go zmienić na np.: „Zmiana hasła”.</t>
-  </si>
-  <si>
-    <t>1. Zaloguj się do aplikacji</t>
   </si>
   <si>
     <t>2. W oknie logowania użyj opcji Odzyskania hasła.</t>
@@ -378,9 +372,6 @@
     <t>Edycja opinii o produkcie – błąd podczas próby edycji.</t>
   </si>
   <si>
-    <t>Przycisk „Edytuj” nie działa podczas próby edycji opinii na tematy produktu.</t>
-  </si>
-  <si>
     <t>2. Przejdź do karty produktu w którym jako ten sam użytkownik dodałeś opinie.</t>
   </si>
   <si>
@@ -709,13 +700,34 @@
   </si>
   <si>
     <t>TC088</t>
+  </si>
+  <si>
+    <t>1. Przejdź do logowania w aplikacji.</t>
+  </si>
+  <si>
+    <t>Kamil Bukowski</t>
+  </si>
+  <si>
+    <t>Rejestracja -&gt; niepoprawny komunikat</t>
+  </si>
+  <si>
+    <t>Podczas rejestracji niepoprawnym formatem email, pojawia się niepoprawny komunikat blędu</t>
+  </si>
+  <si>
+    <t>Nawigacja działa niepoprawnie - nie przekierowywuje do menu głównego.</t>
+  </si>
+  <si>
+    <t>W sekcji newsów przyciski powrotu, oraz udostępniania przemieściły się i uniemożliwiają ich kliknięcie.</t>
+  </si>
+  <si>
+    <t>Przycisk „Edytuj” nie działa podczas próby edycji opinii na temat produktu.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -775,13 +787,6 @@
       <b/>
       <sz val="14"/>
       <color indexed="53"/>
-      <name val="Liberation Sans"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="52"/>
       <name val="Liberation Sans"/>
       <charset val="238"/>
     </font>
@@ -858,22 +863,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -886,24 +882,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
@@ -924,6 +928,886 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7772400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2F75F3-3423-61A5-C97B-6CF4D31CCF6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3822700" y="5003800"/>
+          <a:ext cx="7772400" cy="3541750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB278942-6968-C7CC-48EE-F0C567E2443D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="4838700"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CEBFD2-9C6B-C238-E1B0-FE65030FB895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="4838700"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F8F2ED-3FAB-6230-4C50-E30D707ABF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5080000"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316C3159-EF3C-6E5B-41C0-0D62C3060E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4170405" y="5491892"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CEC095-B848-02CD-C403-4967C596A5C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="4813300"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4641532</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8F8F8F-BE53-B82A-E4A6-E3B676DA8D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5308600"/>
+          <a:ext cx="4641532" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A00C49C-CA0C-FED4-4F7D-8E01348F3E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5041900"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3035299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42290</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54BADD4-D632-479D-45D4-ED94F7568103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114799" y="5003800"/>
+          <a:ext cx="11980291" cy="6108700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD0B6D4-E3C9-F2F1-83C7-8FD758192498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5067300"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA188C59-9AD9-0F54-5E53-47CD3E478F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5029200"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2540000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0980AC6D-285E-1B28-37F8-9AA6D5755804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5143500"/>
+          <a:ext cx="2540000" cy="5511800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936355F6-114F-54FC-BE71-1A1C0A34EAB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5003800"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22077AC8-36C2-5A78-2FD4-1E22213466F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5664200"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2540000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F0AB56-9923-DDA6-43A1-8D853B90601B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5537200"/>
+          <a:ext cx="2540000" cy="5511800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4643525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8E874B-1ABD-DDC4-7BEE-590992B4EC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="5092700"/>
+          <a:ext cx="4643525" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1225,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520B47EB-F8A9-3445-AFE2-16F642CFD1AD}">
   <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1246,56 +2130,56 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:3" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:3" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1303,7 +2187,7 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1311,27 +2195,27 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="18" customHeight="1">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="18" customHeight="1">
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="18" customHeight="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1339,37 +2223,37 @@
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>37</v>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1383,6 +2267,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1390,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAFE58-F885-5641-9845-86E26B027442}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1409,150 +2294,150 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>92</v>
+      <c r="C3" s="18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>76</v>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
+      <c r="C9" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>93</v>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>94</v>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>95</v>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="23.25" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>96</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>97</v>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1566,6 +2451,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1573,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD16537-1470-864E-867B-173B3A6E99C3}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1592,152 +2478,152 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
+      <c r="C3" s="18" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="12" t="s">
-        <v>100</v>
+      <c r="C7" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
-        <v>101</v>
+      <c r="C8" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
-        <v>102</v>
+      <c r="C9" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
+      <c r="C10" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
-        <v>104</v>
+      <c r="C11" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>105</v>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>106</v>
+      <c r="C13" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="18" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>89</v>
+      <c r="C18" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>107</v>
+      <c r="C20" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1751,6 +2637,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1758,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BD90E1-53C3-EF42-A374-E5573882E5A8}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1777,164 +2664,164 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>109</v>
+      <c r="C3" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="12" t="s">
-        <v>110</v>
+      <c r="C7" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
-        <v>111</v>
+      <c r="C8" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
-        <v>112</v>
+      <c r="C9" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>113</v>
+      <c r="C10" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
-        <v>114</v>
+      <c r="C11" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2"/>
-      <c r="C12" s="12" t="s">
-        <v>115</v>
+      <c r="C12" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="12" t="s">
-        <v>116</v>
+      <c r="C13" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>117</v>
+      <c r="C14" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="21" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>118</v>
+      <c r="C15" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="22.25" customHeight="1">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21" customHeight="1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="21" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="18" spans="2:5" ht="21" customHeight="1">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="22" customHeight="1">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="22" customHeight="1">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="22" customHeight="1">
-      <c r="B22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>119</v>
+      <c r="C22" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1948,6 +2835,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1955,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D34DD1-ECFD-B64B-BF11-046D38AAD414}">
   <dimension ref="B2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1974,162 +2862,162 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>121</v>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="12" t="s">
-        <v>100</v>
+      <c r="C7" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
-        <v>101</v>
+      <c r="C8" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
-        <v>122</v>
+      <c r="C9" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>123</v>
+      <c r="C10" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
-        <v>124</v>
+      <c r="C11" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2"/>
-      <c r="C12" s="12" t="s">
-        <v>125</v>
+      <c r="C12" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="2:5" ht="21" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>126</v>
+      <c r="C14" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="21" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>127</v>
+      <c r="C15" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" customHeight="1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>128</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>89</v>
+      <c r="C20" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="22" customHeight="1">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="22" customHeight="1">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="22" customHeight="1">
-      <c r="B22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>129</v>
+      <c r="C22" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2143,6 +3031,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2150,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1077D4-0B21-DA4E-A771-F0B18B4DE18E}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2169,150 +3058,150 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>131</v>
+      <c r="C3" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="12" t="s">
-        <v>132</v>
+      <c r="C7" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
-        <v>133</v>
+      <c r="C8" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
-        <v>134</v>
+      <c r="C9" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>135</v>
+      <c r="C10" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>136</v>
+      <c r="C12" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>137</v>
+      <c r="C13" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>138</v>
+      <c r="C20" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2326,6 +3215,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2333,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110EA10-9393-3741-BFFD-BA3AEE3460D5}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2352,148 +3242,148 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>140</v>
+      <c r="C3" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="12" t="s">
-        <v>141</v>
+      <c r="C7" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
-        <v>142</v>
+      <c r="C8" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
-        <v>143</v>
+      <c r="C9" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>144</v>
+      <c r="C11" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>145</v>
+      <c r="C12" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="22.25" customHeight="1">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21" customHeight="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="15" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="21" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="22" customHeight="1">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="22" customHeight="1">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>146</v>
+      <c r="C19" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2507,6 +3397,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2514,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEF7C2A-F5E3-0943-B1D0-4867E6B1CB48}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2533,148 +3424,148 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>148</v>
+      <c r="C3" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="12" t="s">
-        <v>141</v>
+      <c r="C7" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
-        <v>149</v>
+      <c r="C8" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
-        <v>143</v>
+      <c r="C9" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>150</v>
+      <c r="C11" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>145</v>
+      <c r="C12" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="22.25" customHeight="1">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21" customHeight="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="15" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="21" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="22" customHeight="1">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="22" customHeight="1">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>151</v>
+      <c r="C19" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2688,6 +3579,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2695,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFCEB19-001B-1C49-8D7D-C8258B450356}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2714,152 +3606,152 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>153</v>
+      <c r="C3" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="12" t="s">
-        <v>154</v>
+      <c r="C7" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
-        <v>155</v>
+      <c r="C8" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
-        <v>156</v>
+      <c r="C9" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>157</v>
+      <c r="C10" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>158</v>
+      <c r="C12" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>137</v>
+      <c r="C13" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>159</v>
+      <c r="C20" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2873,6 +3765,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2881,7 +3774,7 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2899,156 +3792,156 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>161</v>
+      <c r="C3" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>162</v>
+      <c r="C7" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>163</v>
+      <c r="C8" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>164</v>
+      <c r="C9" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>165</v>
+      <c r="C10" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
-        <v>166</v>
+      <c r="C11" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>167</v>
+      <c r="C13" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>168</v>
+      <c r="C14" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="E15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="24.5" customHeight="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="24.5" customHeight="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>89</v>
+      <c r="C19" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="22" customHeight="1">
+      <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="22" customHeight="1">
-      <c r="B21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>169</v>
+      <c r="C21" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3062,6 +3955,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3069,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBDBD83-976E-B74A-A08E-68FB87FE6DD4}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -3088,148 +3982,148 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>171</v>
+      <c r="C3" s="18" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>172</v>
+      <c r="C7" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>173</v>
+      <c r="C8" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>174</v>
+      <c r="C9" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>175</v>
+      <c r="C11" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>176</v>
+      <c r="C12" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21" customHeight="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="21" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="22" customHeight="1">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="22" customHeight="1">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>179</v>
+      <c r="C19" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3243,6 +4137,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3250,8 +4145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70035F0D-AE84-5E45-93C3-89B43345946C}">
   <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -3267,130 +4162,130 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="16" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="4" spans="2:3" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:3" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:3" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
+      <c r="C6" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="2:3" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="18" customHeight="1">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="18" customHeight="1">
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="18" customHeight="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="22" customHeight="1">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="22" customHeight="1">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3404,6 +4299,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3411,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671B124E-2C26-6647-B2FA-4F5D501C71D5}">
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -3430,156 +4326,156 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>161</v>
+      <c r="C3" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>181</v>
+      <c r="C7" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>182</v>
+      <c r="C8" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>183</v>
+      <c r="C9" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>184</v>
+      <c r="C10" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
-        <v>185</v>
+      <c r="C11" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>186</v>
+      <c r="C13" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="21" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>187</v>
+      <c r="C14" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="E15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="17" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" customHeight="1">
       <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="22" customHeight="1">
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="22" customHeight="1">
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="22" customHeight="1">
-      <c r="B21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3593,6 +4489,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3600,8 +4497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BEAE29-18C0-1F4F-8B6E-2CDB1AB867D5}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -3620,166 +4517,166 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>161</v>
+      <c r="C3" s="18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>189</v>
+      <c r="C8" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>190</v>
+      <c r="C9" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>191</v>
+      <c r="C12" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>192</v>
+      <c r="C13" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>193</v>
+      <c r="C20" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="16" customHeight="1">
-      <c r="I32" s="24"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="9:9" ht="16" customHeight="1">
-      <c r="I33" s="25"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="9:9" ht="16" customHeight="1">
-      <c r="I34" s="25"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="9:9" ht="16" customHeight="1">
-      <c r="I35" s="25"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="9:9" ht="16" customHeight="1">
-      <c r="I36" s="26"/>
+      <c r="I36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3794,6 +4691,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3801,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC6A8DA-61ED-CD47-B26C-29A2F60DD619}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -3821,166 +4719,169 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>195</v>
+      <c r="C3" s="18" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>154</v>
+      <c r="C7" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>196</v>
+      <c r="C8" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>197</v>
+      <c r="C9" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>198</v>
+      <c r="C10" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>199</v>
+      <c r="C12" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>200</v>
+      <c r="C13" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>89</v>
+      <c r="C18" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>201</v>
+      <c r="C20" s="16" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="16" customHeight="1">
-      <c r="I32" s="24"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="9:9" ht="16" customHeight="1">
-      <c r="I33" s="25"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="9:9" ht="16" customHeight="1">
-      <c r="I34" s="25"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="9:9" ht="16" customHeight="1">
-      <c r="I35" s="25"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="9:9" ht="16" customHeight="1">
-      <c r="I36" s="26"/>
+      <c r="I36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4002,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA6811A-2EEE-D44F-9006-19979428D1B4}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -4022,171 +4923,171 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>161</v>
+      <c r="C3" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>40</v>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
-        <v>162</v>
+      <c r="C7" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>203</v>
+      <c r="C8" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>204</v>
+      <c r="C9" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
-        <v>205</v>
+      <c r="C10" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
-        <v>206</v>
+      <c r="C11" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>207</v>
+      <c r="C12" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>208</v>
+      <c r="C13" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>209</v>
+      <c r="C20" s="16" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="16" customHeight="1">
-      <c r="I32" s="24"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" spans="9:9" ht="16" customHeight="1">
-      <c r="I33" s="25"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="9:9" ht="16" customHeight="1">
-      <c r="I34" s="25"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="9:9" ht="16" customHeight="1">
-      <c r="I35" s="25"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="9:9" ht="16" customHeight="1">
-      <c r="I36" s="26"/>
+      <c r="I36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4208,8 +5109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662DDB19-1439-4D49-B49C-68E699AC95B0}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -4227,153 +5128,153 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
+      <c r="C3" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4394,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E4842-C7E9-0440-90B9-578E6254525B}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -4413,153 +5314,153 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
+      <c r="C3" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21" customHeight="1">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.5" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="17.5" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4580,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82779CC-84AD-0540-BAE6-C279F8B90C6C}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -4599,153 +5500,153 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
+      <c r="C3" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>61</v>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>62</v>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21" customHeight="1">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="21" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>63</v>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4766,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4251656C-EE3F-2946-B697-B41414422CA9}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -4785,153 +5686,153 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>65</v>
+      <c r="C3" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>67</v>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="21" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="22.25" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>68</v>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4952,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2133E4-2AA4-A14A-8581-F8A4D5BE539F}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -4971,153 +5872,153 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>70</v>
+      <c r="C3" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
-        <v>71</v>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>72</v>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="21" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="2:5" ht="17.5" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>73</v>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5138,7 +6039,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121042C6-30D5-D34A-9A81-781C10156A86}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="156.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="21" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="16" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="16" customHeight="1">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" ht="16" customHeight="1">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" ht="21" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21" customHeight="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="21" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" ht="21" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="21" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="22" customHeight="1">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="22" customHeight="1">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="21" customHeight="1">
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B14:B16"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71FD6FD-53BB-3640-9D5D-FAF955D53AFB}">
+  <dimension ref="B2:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5157,150 +6242,150 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
+      <c r="C3" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>76</v>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
+      <c r="C9" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
       <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
+      <c r="C10" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="21" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>80</v>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>81</v>
+      <c r="C13" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19.75" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="21" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+    </row>
+    <row r="16" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>82</v>
+      <c r="C18" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>83</v>
+      <c r="C20" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5314,188 +6399,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71FD6FD-53BB-3640-9D5D-FAF955D53AFB}">
-  <dimension ref="B2:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="156.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="21" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="16" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" ht="16" customHeight="1">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" ht="21" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="21" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="21" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="21" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="21" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="21" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" ht="21" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="21" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="21" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="22" customHeight="1">
-      <c r="B18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="22" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="22" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="21" customHeight="1">
-      <c r="B21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B14:B16"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>